--- a/shin-megami-tensei/checklist.xlsx
+++ b/shin-megami-tensei/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shin-megami-tensei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB865B9-0C14-724F-BA17-F81219150F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C773ED-4BC1-BF42-9579-7824E75F69F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{D4FC0F6A-6FE0-CD4C-A4BA-779FF194BB2D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>year</t>
   </si>
@@ -159,6 +159,99 @@
   </si>
   <si>
     <t>Business Hall: Shin Megami Tensei RPG Awakening Edition Supplement</t>
+  </si>
+  <si>
+    <t>真・女神転生3‐NOCTURNE TRPG 東京受胎</t>
+  </si>
+  <si>
+    <t>Shin Megami Tensei 3-NOCTURNE TRPG Tokyo conception</t>
+  </si>
+  <si>
+    <t>Jive</t>
+  </si>
+  <si>
+    <t>nocturne-rulebook.jpg</t>
+  </si>
+  <si>
+    <t>nocturne-supplement.jpg</t>
+  </si>
+  <si>
+    <t>アマラ深界 真・女神転生3‐NOCTURNE TRPGサプリメント</t>
+  </si>
+  <si>
+    <t>Amara Deep World: Shin Megami Tensei 3-NOCTURNE TRPG Supplement</t>
+  </si>
+  <si>
+    <t>再会―See you again next world 真・女神転生3 NOCTURNE TRPGリプレイ</t>
+  </si>
+  <si>
+    <t>Reunion―See you again next world: Shin Megami Tensei 3 NOCTURNE TRPG Replay</t>
+  </si>
+  <si>
+    <t>nocturne-replay.jpg</t>
+  </si>
+  <si>
+    <t>真・女神転生TRPG　魔都東京200X</t>
+  </si>
+  <si>
+    <t>Shin Megami Tensei TRPG Magic City Tokyo 200X</t>
+  </si>
+  <si>
+    <t>200x-rulebook.jpg</t>
+  </si>
+  <si>
+    <t>金剛神界 真・女神転生TRPG魔都東京200Xサプリメント</t>
+  </si>
+  <si>
+    <t>200x-magic-city-tokyo.jpg</t>
+  </si>
+  <si>
+    <t>Kongo Shinkai: Shin Megami Tensei TRPG Magic City Tokyo 200X Supplement</t>
+  </si>
+  <si>
+    <t>TOKYOミレニアム 真・女神転生TRPG魔都東京200Xサプリメント</t>
+  </si>
+  <si>
+    <t>200x-tokyo-millenium.jpg</t>
+  </si>
+  <si>
+    <t>Tokyo Millennium: Shin Megami Tensei TRPG Magic City Tokyo 200X Supplement</t>
+  </si>
+  <si>
+    <t>セフィロトの魔界 真・女神転生TRPG魔都東京200Xサプリメント</t>
+  </si>
+  <si>
+    <t>Sephiroto's Makai: Shin Megami Tensei TRPG Magic City Tokyo 200X Supplement</t>
+  </si>
+  <si>
+    <t>200x-sephirots-hell.jpg</t>
+  </si>
+  <si>
+    <t>闇のプロファイル 真・女神転生TRPG魔都東京200X</t>
+  </si>
+  <si>
+    <t>200x-dark-profile.jpg</t>
+  </si>
+  <si>
+    <t>Profile of Darkness Shin Megami Tensei TRPG Magic City Tokyo 200X</t>
+  </si>
+  <si>
+    <t>異形科学 －ストレンジ・サイエンス 真・女神転生TRPG 魔都東京200X</t>
+  </si>
+  <si>
+    <t>Variant Science-Strange Science Shin Megami Tensei TRPG Magic City Tokyo 200X</t>
+  </si>
+  <si>
+    <t>200x-ragnarok.jpg</t>
+  </si>
+  <si>
+    <t>ラグナロク 真・女神転生TRPG魔都東京200X</t>
+  </si>
+  <si>
+    <t>Ragnarok: Shin Megami Tensei TRPG Magic City Tokyo 200X</t>
+  </si>
+  <si>
+    <t>200x-variant-science.jpg</t>
   </si>
 </sst>
 </file>
@@ -519,16 +612,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E819AE-E18D-4044-98EA-EF00A692D0DF}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
-    <col min="3" max="3" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -753,6 +846,206 @@
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2005</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shin-megami-tensei/checklist.xlsx
+++ b/shin-megami-tensei/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shin-megami-tensei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C773ED-4BC1-BF42-9579-7824E75F69F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7EEEB9-EB73-DE46-89E7-5965EF15F230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{D4FC0F6A-6FE0-CD4C-A4BA-779FF194BB2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>year</t>
   </si>
@@ -252,6 +252,33 @@
   </si>
   <si>
     <t>200x-variant-science.jpg</t>
+  </si>
+  <si>
+    <t>successor-to-the-white-blade.jpg</t>
+  </si>
+  <si>
+    <t>白き刃の後継者 真・女神転生TRPG魔都東京200Xリプレイ</t>
+  </si>
+  <si>
+    <t>The Successor to the White Blade: Shin Megami Tensei TRPG Magic Tokyo 200X Replay</t>
+  </si>
+  <si>
+    <t>heavenly-cage.jpg</t>
+  </si>
+  <si>
+    <t>天界の檻 真・女神転生TRPG魔都東京200Xリプレイ</t>
+  </si>
+  <si>
+    <t>Heavenly Cage: Shin Megami Tensei TRPG Magic City Tokyo 200X Replay</t>
+  </si>
+  <si>
+    <t>偽りの千年王国 真・女神転生TRPG魔都東京200X</t>
+  </si>
+  <si>
+    <t>false-millenial-kingdom.jpg</t>
+  </si>
+  <si>
+    <t>False Millennial Kingdom: Shin Megami Tensei TRPG Magic City Tokyo 200X</t>
   </si>
 </sst>
 </file>
@@ -612,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E819AE-E18D-4044-98EA-EF00A692D0DF}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,6 +1073,66 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2007</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shin-megami-tensei/checklist.xlsx
+++ b/shin-megami-tensei/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shin-megami-tensei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7EEEB9-EB73-DE46-89E7-5965EF15F230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9846673-4192-014B-A697-A246FDDF44A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{D4FC0F6A-6FE0-CD4C-A4BA-779FF194BB2D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>year</t>
   </si>
@@ -279,6 +279,123 @@
   </si>
   <si>
     <t>False Millennial Kingdom: Shin Megami Tensei TRPG Magic City Tokyo 200X</t>
+  </si>
+  <si>
+    <t>退魔生徒会織姫異聞</t>
+  </si>
+  <si>
+    <t>Devil Student Organization Orihime Inoue</t>
+  </si>
+  <si>
+    <t>devil_student_organization.jpg</t>
+  </si>
+  <si>
+    <t>聖華学園退魔生徒会</t>
+  </si>
+  <si>
+    <t>Seika Gakuen Demon Student Organization</t>
+  </si>
+  <si>
+    <t>seika_gakuen.jpg</t>
+  </si>
+  <si>
+    <t>退魔生徒会屋久島奇譚</t>
+  </si>
+  <si>
+    <t>yakushima_kitan.jpg</t>
+  </si>
+  <si>
+    <t>Devil Student Organization Yakushima Kitan</t>
+  </si>
+  <si>
+    <t>退魔生徒会出雲邪神陵</t>
+  </si>
+  <si>
+    <t>Devil Student Organization Izumo Evil God Mausoleum</t>
+  </si>
+  <si>
+    <t>izumo_evil_god.jpg</t>
+  </si>
+  <si>
+    <t>退魔生徒会伯林時迷宮</t>
+  </si>
+  <si>
+    <t>Devil Student Organization Hakubayashi Toki Labyrinth</t>
+  </si>
+  <si>
+    <t>toki_labyrinth.jpg</t>
+  </si>
+  <si>
+    <t>退魔生徒会京都百鬼行</t>
+  </si>
+  <si>
+    <t>Devil Student Organization Kyoto Hyakuki</t>
+  </si>
+  <si>
+    <t>kyoto_hyakuki.jpg</t>
+  </si>
+  <si>
+    <t>Night Tale III</t>
+  </si>
+  <si>
+    <t>ナイト・テイル III</t>
+  </si>
+  <si>
+    <t>night_tale_iii.jpg</t>
+  </si>
+  <si>
+    <t>退魔生徒会天使降誕祭</t>
+  </si>
+  <si>
+    <t>Devil Student Organization Angel Birthday Festival</t>
+  </si>
+  <si>
+    <t>angel_birthday_festival.jpg</t>
+  </si>
+  <si>
+    <t>退魔生徒会帝都天外抄</t>
+  </si>
+  <si>
+    <t>Devil Student Organization Teito Tengaisho</t>
+  </si>
+  <si>
+    <t>teito_tengaisho.jpg</t>
+  </si>
+  <si>
+    <t>ナイト・テイルIV</t>
+  </si>
+  <si>
+    <t>Night Tale IV</t>
+  </si>
+  <si>
+    <t>night_tale_iv.jpg</t>
+  </si>
+  <si>
+    <t>退魔生徒会万聖節前夜</t>
+  </si>
+  <si>
+    <t>Devil Student Organization All Saints' Day Eve</t>
+  </si>
+  <si>
+    <t>all_saints_day_eve.jpg</t>
+  </si>
+  <si>
+    <t>ナイト・テイル II</t>
+  </si>
+  <si>
+    <t>Night Tale II</t>
+  </si>
+  <si>
+    <t>night_tale_ii.jpg</t>
+  </si>
+  <si>
+    <t>ナイト・テイル</t>
+  </si>
+  <si>
+    <t>Night Tale</t>
+  </si>
+  <si>
+    <t>night_tale.jpg</t>
   </si>
 </sst>
 </file>
@@ -639,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E819AE-E18D-4044-98EA-EF00A692D0DF}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,22 +1072,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -978,16 +1095,16 @@
         <v>2006</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -995,19 +1112,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1015,59 +1132,59 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1075,39 +1192,39 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
@@ -1118,22 +1235,285 @@
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2007</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2008</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2008</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2009</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/shin-megami-tensei/checklist.xlsx
+++ b/shin-megami-tensei/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shin-megami-tensei/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/japanese-collectors-list/shin-megami-tensei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9846673-4192-014B-A697-A246FDDF44A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DD609B-9C8E-3D49-9CFB-4A53196EC990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{D4FC0F6A-6FE0-CD4C-A4BA-779FF194BB2D}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16340" xr2:uid="{D4FC0F6A-6FE0-CD4C-A4BA-779FF194BB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
   <si>
     <t>year</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>night_tale.jpg</t>
+  </si>
+  <si>
+    <t>湯けむり女神とアバドン王</t>
+  </si>
+  <si>
+    <t>Yukemuri Goddess and King Abadon</t>
+  </si>
+  <si>
+    <t>yukemuri_goddess.jpg</t>
   </si>
 </sst>
 </file>
@@ -756,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E819AE-E18D-4044-98EA-EF00A692D0DF}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,6 +1519,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
     <sortCondition ref="A2:A37"/>
